--- a/AWSでのWordPress手順書.xlsx
+++ b/AWSでのWordPress手順書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Education\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AFACDE-30E4-4B47-A874-CD8A870D28CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CD23FF-F197-40B8-80E3-AE84738F587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14568" windowHeight="12336" xr2:uid="{800F02E9-7D2F-4FB4-8C3A-1D869C96E633}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{800F02E9-7D2F-4FB4-8C3A-1D869C96E633}"/>
   </bookViews>
   <sheets>
     <sheet name="WordPressのインストール" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>・WordPressをインストールする</t>
   </si>
   <si>
-    <t>「インスタンスの作成と起動」でAmazonマシンイメージを「Amazon Linux 2」にしている場合、Linux2023とコマンドが違うため注意が必要。</t>
-  </si>
-  <si>
     <t>基本は公式が用意している公式ドキュメントを順番通りにコピーすれば用意できる</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
   </si>
   <si>
     <t>「mysql -u root -p」で自身が使用するDBのパスワードを決める。</t>
-  </si>
-  <si>
-    <t>(パスワードは打っても、表示されない為覚える必要がある)</t>
   </si>
   <si>
     <t>「CREATE DATABASE `wordpress-db`;」DBを作る</t>
@@ -252,25 +246,16 @@
     <t>https://api.wordpress.org/secret-key/1.1/salt/</t>
   </si>
   <si>
-    <t>Ctrl+Oで保存、若しくはそのままCtrl+Xで終了する際に保存しEnter</t>
-  </si>
-  <si>
     <t>「cp -r wordpress/* /var/www/html/」でWordPressファイルをApacheドキュメントルートにインストールする。</t>
   </si>
   <si>
     <t>「nano /etc/httpd/conf/httpd.conf」を打ちWordPressでパーマリンクを使用できるようにする。</t>
   </si>
   <si>
-    <t>「Directory "/var/www/html"」と書かれているセクションを探す。</t>
-  </si>
-  <si>
     <t>「AllowOverride None」と記載のある部分を「AllowOverride ALL」へ変更。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(AllowOverrideが複数あるため、必ずDirectory "/var/www/html"セクション内を変更すること)</t>
-  </si>
-  <si>
     <t>「sudo dnf install php-gd」でPHPグラフィック描画ライブラリをAL2023にインストールする。(途中Y/Nを求められるのでY)</t>
   </si>
   <si>
@@ -315,9 +300,6 @@
   </si>
   <si>
     <t>されていなければ「sudo systemctl start mariadb」で開始。</t>
-  </si>
-  <si>
-    <t>Ctrl+Cでコンソールに戻る</t>
   </si>
   <si>
     <t>ApacheWebサーバーが実行されているか確認</t>
@@ -501,9 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/16~/28の間であればおそらくなんでも良い。デフォルトの数値推奨。</t>
-  </si>
-  <si>
     <t>名前を付つけた後、使用するVCPを選択</t>
     <rPh sb="7" eb="8">
       <t>ノチ</t>
@@ -543,50 +522,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成当時ではRoute53を使用し、ACMから認証を受けないと作成ができない。</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回で作成する際はRoute53でSSL認証を受ける必要がある。</t>
-    <rPh sb="0" eb="2">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Route53でSSL認証を受ける</t>
     <rPh sb="12" eb="14">
       <t>ニンショウ</t>
@@ -738,22 +673,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用可能である場合13USDかかるので注意</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チェックアウトするとホストゾーンにドメインが登録される</t>
     <rPh sb="22" eb="24">
       <t>トウロク</t>
@@ -816,6 +735,272 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「インスタンスの作成と起動」でAmazonマシンイメージを「Amazon Linux 2」にしている場合、Linux2023と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コマンドが違うため</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意が必要。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>パスワードは打っても、表示されない為覚える必要がある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl+Oで保存、若しくはそのままCtrl+Xで終了する際に保存しEnter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Directory "/var/www/html"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」と書かれているセクションを探す。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(AllowOverrideが複数あるため、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必ずDirectory "/var/www/html"セクション内を変更すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ctrl+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でコンソールに戻る</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>/16~/28の間であればおそらくなんでも良い。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>デフォルトの数値推奨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成当時(2024/1/20)ではRoute53を使用し、ACMから認証を受けないと作成ができない。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>初回で作成する際は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Route53でSSL認証を受ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必要がある。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>使用可能である場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13USDかかるので注意</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -824,7 +1009,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,6 +1031,22 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -875,14 +1076,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,8 +1149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341120" y="1167346"/>
-          <a:ext cx="5090160" cy="2706967"/>
+          <a:off x="1347537" y="1187399"/>
+          <a:ext cx="5112619" cy="2751082"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2526,15 +2730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>432087</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>135924</xdr:rowOff>
+      <xdr:colOff>319793</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>216135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>35768</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>27991</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597243</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>108202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2549,8 +2753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438169" y="47488781"/>
-          <a:ext cx="1609762" cy="343047"/>
+          <a:off x="2341098" y="48831735"/>
+          <a:ext cx="1624987" cy="357288"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2732,6 +2936,72 @@
         <a:xfrm>
           <a:off x="2741042" y="57009298"/>
           <a:ext cx="523526" cy="341228"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234215</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>224591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40106</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>185572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="楕円 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B4A0EE-5369-438D-9259-63CC8838D66E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2255520" y="2085475"/>
+          <a:ext cx="1153428" cy="426202"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3634,10 +3904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1BF55A-9951-407F-98FF-4D2B864A1BAF}">
-  <dimension ref="B2:D249"/>
+  <dimension ref="B2:C249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="95" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3722,382 +3992,382 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C69" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C103" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C124" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C141" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C143" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C145" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C146" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C158" t="s">
-        <v>54</v>
+      <c r="C158" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C159" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C160" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C161" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C162" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C163" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C186" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C195" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C196" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C197" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C198" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C199" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C200" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C201" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C202" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C203" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C204" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C205" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C206" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C207" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C217" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C218" t="s">
-        <v>75</v>
+      <c r="C218" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C219" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C220" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C221" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C222" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C223" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C224" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C225" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C226" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C227" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C228" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C229" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C230" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C242" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C243" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C249" s="2" t="s">
-        <v>90</v>
+      <c r="C249" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4115,245 +4385,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54972251-3DE6-4664-8C6E-73005A0A42C4}">
   <dimension ref="B2:C148"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="95" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C56" t="s">
-        <v>115</v>
+      <c r="C56" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C70" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C72" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C82" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C83" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C85" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C93" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C94" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C95" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C107" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C118" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C133" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C134" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C135" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C142" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C143" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C148" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
